--- a/Extras/timeslots.xlsx
+++ b/Extras/timeslots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wmich-my.sharepoint.com/personal/bdz9949_wmich_edu/Documents/Senior-Project/starter files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wmich-my.sharepoint.com/personal/mcg9062_wmich_edu/Documents/Desktop/senior_design/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F4293F-9293-4EAE-9AF3-3581CB51657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F4293F-9293-4EAE-9AF3-3581CB51657E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{D21CBD3B-7E97-48C9-A480-9B28A3B25805}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D21CBD3B-7E97-48C9-A480-9B28A3B25805}"/>
   </bookViews>
   <sheets>
     <sheet name="timeslots" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -460,7 +459,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>TEXT(A2*24,"00.00")&amp;"-"&amp;TEXT(B2*24,"00.00")&amp;"-"&amp;C2</f>
+        <f t="shared" ref="D2:D65" si="0">TEXT(A2*24,"00.00")&amp;"-"&amp;TEXT(B2*24,"00.00")&amp;"-"&amp;C2</f>
         <v>08.00-10.83-F</v>
       </c>
     </row>
@@ -3241,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>TEXT(A3*24,"00.00")&amp;"-"&amp;TEXT(B3*24,"00.00")&amp;"-"&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>08.50-09.33-M</v>
       </c>
     </row>
@@ -3256,7 +3255,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>TEXT(A4*24,"00.00")&amp;"-"&amp;TEXT(B4*24,"00.00")&amp;"-"&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>08.50-09.33-MW</v>
       </c>
     </row>
@@ -3271,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>TEXT(A5*24,"00.00")&amp;"-"&amp;TEXT(B5*24,"00.00")&amp;"-"&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>08.50-09.33-MWF</v>
       </c>
     </row>
@@ -3286,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>TEXT(A6*24,"00.00")&amp;"-"&amp;TEXT(B6*24,"00.00")&amp;"-"&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>08.50-09.33-R</v>
       </c>
     </row>
@@ -3301,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>TEXT(A7*24,"00.00")&amp;"-"&amp;TEXT(B7*24,"00.00")&amp;"-"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>08.50-09.75-TR</v>
       </c>
     </row>
@@ -3316,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>TEXT(A8*24,"00.00")&amp;"-"&amp;TEXT(B8*24,"00.00")&amp;"-"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>08.50-10.33-MW</v>
       </c>
     </row>
@@ -3331,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>TEXT(A9*24,"00.00")&amp;"-"&amp;TEXT(B9*24,"00.00")&amp;"-"&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>08.50-10.33-T</v>
       </c>
     </row>
@@ -3346,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>TEXT(A10*24,"00.00")&amp;"-"&amp;TEXT(B10*24,"00.00")&amp;"-"&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>08.50-10.33-W</v>
       </c>
     </row>
@@ -3361,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>TEXT(A11*24,"00.00")&amp;"-"&amp;TEXT(B11*24,"00.00")&amp;"-"&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.00-TR</v>
       </c>
     </row>
@@ -3376,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>TEXT(A12*24,"00.00")&amp;"-"&amp;TEXT(B12*24,"00.00")&amp;"-"&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-F</v>
       </c>
     </row>
@@ -3391,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>TEXT(A13*24,"00.00")&amp;"-"&amp;TEXT(B13*24,"00.00")&amp;"-"&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-M</v>
       </c>
     </row>
@@ -3406,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>TEXT(A14*24,"00.00")&amp;"-"&amp;TEXT(B14*24,"00.00")&amp;"-"&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-R</v>
       </c>
     </row>
@@ -3421,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>TEXT(A15*24,"00.00")&amp;"-"&amp;TEXT(B15*24,"00.00")&amp;"-"&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-T</v>
       </c>
     </row>
@@ -3436,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>TEXT(A16*24,"00.00")&amp;"-"&amp;TEXT(B16*24,"00.00")&amp;"-"&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-TR</v>
       </c>
     </row>
@@ -3451,7 +3450,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>TEXT(A17*24,"00.00")&amp;"-"&amp;TEXT(B17*24,"00.00")&amp;"-"&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>08.50-11.33-W</v>
       </c>
     </row>
@@ -3466,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>TEXT(A18*24,"00.00")&amp;"-"&amp;TEXT(B18*24,"00.00")&amp;"-"&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>09.00-09.83-MWF</v>
       </c>
     </row>
@@ -3481,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>TEXT(A19*24,"00.00")&amp;"-"&amp;TEXT(B19*24,"00.00")&amp;"-"&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>09.00-10.25-M</v>
       </c>
     </row>
@@ -3496,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>TEXT(A20*24,"00.00")&amp;"-"&amp;TEXT(B20*24,"00.00")&amp;"-"&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>09.00-10.25-MW</v>
       </c>
     </row>
@@ -3511,7 +3510,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>TEXT(A21*24,"00.00")&amp;"-"&amp;TEXT(B21*24,"00.00")&amp;"-"&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>09.00-10.25-W</v>
       </c>
     </row>
@@ -3526,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>TEXT(A22*24,"00.00")&amp;"-"&amp;TEXT(B22*24,"00.00")&amp;"-"&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>09.00-11.50-MW</v>
       </c>
     </row>
@@ -3541,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>TEXT(A23*24,"00.00")&amp;"-"&amp;TEXT(B23*24,"00.00")&amp;"-"&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.33-M</v>
       </c>
     </row>
@@ -3556,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>TEXT(A24*24,"00.00")&amp;"-"&amp;TEXT(B24*24,"00.00")&amp;"-"&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.33-MW</v>
       </c>
     </row>
@@ -3571,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>TEXT(A25*24,"00.00")&amp;"-"&amp;TEXT(B25*24,"00.00")&amp;"-"&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.33-MWF</v>
       </c>
     </row>
@@ -3586,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>TEXT(A26*24,"00.00")&amp;"-"&amp;TEXT(B26*24,"00.00")&amp;"-"&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.33-TR</v>
       </c>
     </row>
@@ -3601,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>TEXT(A27*24,"00.00")&amp;"-"&amp;TEXT(B27*24,"00.00")&amp;"-"&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.33-W</v>
       </c>
     </row>
@@ -3616,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>TEXT(A28*24,"00.00")&amp;"-"&amp;TEXT(B28*24,"00.00")&amp;"-"&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.75-M</v>
       </c>
     </row>
@@ -3631,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>TEXT(A29*24,"00.00")&amp;"-"&amp;TEXT(B29*24,"00.00")&amp;"-"&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.75-MW</v>
       </c>
     </row>
@@ -3646,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>TEXT(A30*24,"00.00")&amp;"-"&amp;TEXT(B30*24,"00.00")&amp;"-"&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>09.50-10.75-TR</v>
       </c>
     </row>
@@ -3661,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>TEXT(A31*24,"00.00")&amp;"-"&amp;TEXT(B31*24,"00.00")&amp;"-"&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.17-MW</v>
       </c>
     </row>
@@ -3676,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>TEXT(A32*24,"00.00")&amp;"-"&amp;TEXT(B32*24,"00.00")&amp;"-"&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.17-R</v>
       </c>
     </row>
@@ -3691,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>TEXT(A33*24,"00.00")&amp;"-"&amp;TEXT(B33*24,"00.00")&amp;"-"&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.17-TR</v>
       </c>
     </row>
@@ -3706,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>TEXT(A34*24,"00.00")&amp;"-"&amp;TEXT(B34*24,"00.00")&amp;"-"&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.33-F</v>
       </c>
     </row>
@@ -3721,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>TEXT(A35*24,"00.00")&amp;"-"&amp;TEXT(B35*24,"00.00")&amp;"-"&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.33-R</v>
       </c>
     </row>
@@ -3736,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>TEXT(A36*24,"00.00")&amp;"-"&amp;TEXT(B36*24,"00.00")&amp;"-"&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.33-T</v>
       </c>
     </row>
@@ -3751,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>TEXT(A37*24,"00.00")&amp;"-"&amp;TEXT(B37*24,"00.00")&amp;"-"&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>09.50-11.33-TR</v>
       </c>
     </row>
@@ -3766,7 +3765,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>TEXT(A38*24,"00.00")&amp;"-"&amp;TEXT(B38*24,"00.00")&amp;"-"&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>09.50-12.00-MW</v>
       </c>
     </row>
@@ -3781,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>TEXT(A39*24,"00.00")&amp;"-"&amp;TEXT(B39*24,"00.00")&amp;"-"&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>09.50-12.00-R</v>
       </c>
     </row>
@@ -3796,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>TEXT(A40*24,"00.00")&amp;"-"&amp;TEXT(B40*24,"00.00")&amp;"-"&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>09.50-12.00-TR</v>
       </c>
     </row>
@@ -3811,7 +3810,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>TEXT(A41*24,"00.00")&amp;"-"&amp;TEXT(B41*24,"00.00")&amp;"-"&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>09.50-12.33-TR</v>
       </c>
     </row>
@@ -3826,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f>TEXT(A42*24,"00.00")&amp;"-"&amp;TEXT(B42*24,"00.00")&amp;"-"&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>09.50-12.83-MW</v>
       </c>
     </row>
@@ -3841,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>TEXT(A43*24,"00.00")&amp;"-"&amp;TEXT(B43*24,"00.00")&amp;"-"&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>10.00-11.25-MW</v>
       </c>
     </row>
@@ -3856,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>TEXT(A44*24,"00.00")&amp;"-"&amp;TEXT(B44*24,"00.00")&amp;"-"&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>10.00-11.25-R</v>
       </c>
     </row>
@@ -3871,7 +3870,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>TEXT(A45*24,"00.00")&amp;"-"&amp;TEXT(B45*24,"00.00")&amp;"-"&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>10.00-11.25-T</v>
       </c>
     </row>
@@ -3886,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>TEXT(A46*24,"00.00")&amp;"-"&amp;TEXT(B46*24,"00.00")&amp;"-"&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>10.00-11.25-TR</v>
       </c>
     </row>
@@ -3901,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>TEXT(A47*24,"00.00")&amp;"-"&amp;TEXT(B47*24,"00.00")&amp;"-"&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>10.00-12.83-MW</v>
       </c>
     </row>
@@ -3916,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>TEXT(A48*24,"00.00")&amp;"-"&amp;TEXT(B48*24,"00.00")&amp;"-"&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>10.00-13.00-TR</v>
       </c>
     </row>
@@ -3931,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>TEXT(A49*24,"00.00")&amp;"-"&amp;TEXT(B49*24,"00.00")&amp;"-"&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.33-M</v>
       </c>
     </row>
@@ -3946,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>TEXT(A50*24,"00.00")&amp;"-"&amp;TEXT(B50*24,"00.00")&amp;"-"&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.33-MF</v>
       </c>
     </row>
@@ -3961,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>TEXT(A51*24,"00.00")&amp;"-"&amp;TEXT(B51*24,"00.00")&amp;"-"&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.33-MW</v>
       </c>
     </row>
@@ -3976,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f>TEXT(A52*24,"00.00")&amp;"-"&amp;TEXT(B52*24,"00.00")&amp;"-"&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.33-TR</v>
       </c>
     </row>
@@ -3991,7 +3990,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>TEXT(A53*24,"00.00")&amp;"-"&amp;TEXT(B53*24,"00.00")&amp;"-"&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.33-TWRF</v>
       </c>
     </row>
@@ -4006,7 +4005,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>TEXT(A54*24,"00.00")&amp;"-"&amp;TEXT(B54*24,"00.00")&amp;"-"&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>10.50-11.75-MW</v>
       </c>
     </row>
@@ -4021,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>TEXT(A55*24,"00.00")&amp;"-"&amp;TEXT(B55*24,"00.00")&amp;"-"&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.17-M</v>
       </c>
     </row>
@@ -4036,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>TEXT(A56*24,"00.00")&amp;"-"&amp;TEXT(B56*24,"00.00")&amp;"-"&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.17-MW</v>
       </c>
     </row>
@@ -4051,7 +4050,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>TEXT(A57*24,"00.00")&amp;"-"&amp;TEXT(B57*24,"00.00")&amp;"-"&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.17-T</v>
       </c>
     </row>
@@ -4066,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f>TEXT(A58*24,"00.00")&amp;"-"&amp;TEXT(B58*24,"00.00")&amp;"-"&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.17-TR</v>
       </c>
     </row>
@@ -4081,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f>TEXT(A59*24,"00.00")&amp;"-"&amp;TEXT(B59*24,"00.00")&amp;"-"&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.17-W</v>
       </c>
     </row>
@@ -4096,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f>TEXT(A60*24,"00.00")&amp;"-"&amp;TEXT(B60*24,"00.00")&amp;"-"&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.33-M</v>
       </c>
     </row>
@@ -4111,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f>TEXT(A61*24,"00.00")&amp;"-"&amp;TEXT(B61*24,"00.00")&amp;"-"&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.33-T</v>
       </c>
     </row>
@@ -4126,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f>TEXT(A62*24,"00.00")&amp;"-"&amp;TEXT(B62*24,"00.00")&amp;"-"&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.33-W</v>
       </c>
     </row>
@@ -4141,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f>TEXT(A63*24,"00.00")&amp;"-"&amp;TEXT(B63*24,"00.00")&amp;"-"&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>10.50-12.83-TR</v>
       </c>
     </row>
@@ -4156,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f>TEXT(A64*24,"00.00")&amp;"-"&amp;TEXT(B64*24,"00.00")&amp;"-"&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>10.50-13.00-R</v>
       </c>
     </row>
@@ -4171,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f>TEXT(A65*24,"00.00")&amp;"-"&amp;TEXT(B65*24,"00.00")&amp;"-"&amp;C65</f>
+        <f t="shared" si="0"/>
         <v>10.50-13.33-F</v>
       </c>
     </row>
@@ -4186,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f>TEXT(A66*24,"00.00")&amp;"-"&amp;TEXT(B66*24,"00.00")&amp;"-"&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="1">TEXT(A66*24,"00.00")&amp;"-"&amp;TEXT(B66*24,"00.00")&amp;"-"&amp;C66</f>
         <v>10.50-13.33-T</v>
       </c>
     </row>
@@ -4201,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>TEXT(A67*24,"00.00")&amp;"-"&amp;TEXT(B67*24,"00.00")&amp;"-"&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>10.50-15.33-MW</v>
       </c>
     </row>
@@ -4216,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f>TEXT(A68*24,"00.00")&amp;"-"&amp;TEXT(B68*24,"00.00")&amp;"-"&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>11.00-12.25-TR</v>
       </c>
     </row>
@@ -4231,7 +4230,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f>TEXT(A69*24,"00.00")&amp;"-"&amp;TEXT(B69*24,"00.00")&amp;"-"&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>11.00-12.25-W</v>
       </c>
     </row>
@@ -4246,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>TEXT(A70*24,"00.00")&amp;"-"&amp;TEXT(B70*24,"00.00")&amp;"-"&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>11.50-02.00-R</v>
       </c>
     </row>
@@ -4261,7 +4260,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>TEXT(A71*24,"00.00")&amp;"-"&amp;TEXT(B71*24,"00.00")&amp;"-"&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.33-MW</v>
       </c>
     </row>
@@ -4276,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>TEXT(A72*24,"00.00")&amp;"-"&amp;TEXT(B72*24,"00.00")&amp;"-"&amp;C72</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.33-TR</v>
       </c>
     </row>
@@ -4291,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f>TEXT(A73*24,"00.00")&amp;"-"&amp;TEXT(B73*24,"00.00")&amp;"-"&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.67-W</v>
       </c>
     </row>
@@ -4306,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f>TEXT(A74*24,"00.00")&amp;"-"&amp;TEXT(B74*24,"00.00")&amp;"-"&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.75-MW</v>
       </c>
     </row>
@@ -4321,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f>TEXT(A75*24,"00.00")&amp;"-"&amp;TEXT(B75*24,"00.00")&amp;"-"&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.75-R</v>
       </c>
     </row>
@@ -4336,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f>TEXT(A76*24,"00.00")&amp;"-"&amp;TEXT(B76*24,"00.00")&amp;"-"&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.75-T</v>
       </c>
     </row>
@@ -4351,7 +4350,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f>TEXT(A77*24,"00.00")&amp;"-"&amp;TEXT(B77*24,"00.00")&amp;"-"&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>11.50-12.75-TR</v>
       </c>
     </row>
@@ -4366,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f>TEXT(A78*24,"00.00")&amp;"-"&amp;TEXT(B78*24,"00.00")&amp;"-"&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.17-R</v>
       </c>
     </row>
@@ -4381,7 +4380,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>TEXT(A79*24,"00.00")&amp;"-"&amp;TEXT(B79*24,"00.00")&amp;"-"&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.17-TR</v>
       </c>
     </row>
@@ -4396,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f>TEXT(A80*24,"00.00")&amp;"-"&amp;TEXT(B80*24,"00.00")&amp;"-"&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.33-M</v>
       </c>
     </row>
@@ -4411,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f>TEXT(A81*24,"00.00")&amp;"-"&amp;TEXT(B81*24,"00.00")&amp;"-"&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.33-R</v>
       </c>
     </row>
@@ -4426,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f>TEXT(A82*24,"00.00")&amp;"-"&amp;TEXT(B82*24,"00.00")&amp;"-"&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.33-T</v>
       </c>
     </row>
@@ -4441,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>TEXT(A83*24,"00.00")&amp;"-"&amp;TEXT(B83*24,"00.00")&amp;"-"&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>11.50-13.33-W</v>
       </c>
     </row>
@@ -4456,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f>TEXT(A84*24,"00.00")&amp;"-"&amp;TEXT(B84*24,"00.00")&amp;"-"&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>11.50-14.00-R</v>
       </c>
     </row>
@@ -4471,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f>TEXT(A85*24,"00.00")&amp;"-"&amp;TEXT(B85*24,"00.00")&amp;"-"&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>11.50-14.33-F</v>
       </c>
     </row>
@@ -4486,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>TEXT(A86*24,"00.00")&amp;"-"&amp;TEXT(B86*24,"00.00")&amp;"-"&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>11.50-14.33-R</v>
       </c>
     </row>
@@ -4501,7 +4500,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f>TEXT(A87*24,"00.00")&amp;"-"&amp;TEXT(B87*24,"00.00")&amp;"-"&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>11.50-14.33-T</v>
       </c>
     </row>
@@ -4516,7 +4515,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f>TEXT(A88*24,"00.00")&amp;"-"&amp;TEXT(B88*24,"00.00")&amp;"-"&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>11.50-14.33-W</v>
       </c>
     </row>
@@ -4531,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>TEXT(A89*24,"00.00")&amp;"-"&amp;TEXT(B89*24,"00.00")&amp;"-"&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>12.00-12.83-F</v>
       </c>
     </row>
@@ -4546,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>TEXT(A90*24,"00.00")&amp;"-"&amp;TEXT(B90*24,"00.00")&amp;"-"&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>12.50-13.33-MW</v>
       </c>
     </row>
@@ -4561,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f>TEXT(A91*24,"00.00")&amp;"-"&amp;TEXT(B91*24,"00.00")&amp;"-"&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>12.50-13.75-MW</v>
       </c>
     </row>
@@ -4576,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f>TEXT(A92*24,"00.00")&amp;"-"&amp;TEXT(B92*24,"00.00")&amp;"-"&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>12.50-13.75-R</v>
       </c>
     </row>
@@ -4591,7 +4590,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f>TEXT(A93*24,"00.00")&amp;"-"&amp;TEXT(B93*24,"00.00")&amp;"-"&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>12.50-13.75-W</v>
       </c>
     </row>
@@ -4606,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f>TEXT(A94*24,"00.00")&amp;"-"&amp;TEXT(B94*24,"00.00")&amp;"-"&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.17-MW</v>
       </c>
     </row>
@@ -4621,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f>TEXT(A95*24,"00.00")&amp;"-"&amp;TEXT(B95*24,"00.00")&amp;"-"&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.17-T</v>
       </c>
     </row>
@@ -4636,7 +4635,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f>TEXT(A96*24,"00.00")&amp;"-"&amp;TEXT(B96*24,"00.00")&amp;"-"&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.17-TR</v>
       </c>
     </row>
@@ -4651,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f>TEXT(A97*24,"00.00")&amp;"-"&amp;TEXT(B97*24,"00.00")&amp;"-"&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.33-F</v>
       </c>
     </row>
@@ -4666,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f>TEXT(A98*24,"00.00")&amp;"-"&amp;TEXT(B98*24,"00.00")&amp;"-"&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.33-M</v>
       </c>
     </row>
@@ -4681,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f>TEXT(A99*24,"00.00")&amp;"-"&amp;TEXT(B99*24,"00.00")&amp;"-"&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.33-T</v>
       </c>
     </row>
@@ -4696,7 +4695,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f>TEXT(A100*24,"00.00")&amp;"-"&amp;TEXT(B100*24,"00.00")&amp;"-"&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>12.50-14.33-W</v>
       </c>
     </row>
@@ -4711,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f>TEXT(A101*24,"00.00")&amp;"-"&amp;TEXT(B101*24,"00.00")&amp;"-"&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>12.50-15.33-F</v>
       </c>
     </row>
@@ -4726,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f>TEXT(A102*24,"00.00")&amp;"-"&amp;TEXT(B102*24,"00.00")&amp;"-"&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>12.50-15.33-MW</v>
       </c>
     </row>
@@ -4741,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f>TEXT(A103*24,"00.00")&amp;"-"&amp;TEXT(B103*24,"00.00")&amp;"-"&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>12.50-15.33-R</v>
       </c>
     </row>
@@ -4756,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f>TEXT(A104*24,"00.00")&amp;"-"&amp;TEXT(B104*24,"00.00")&amp;"-"&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>12.50-15.33-T</v>
       </c>
     </row>
@@ -4771,7 +4770,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f>TEXT(A105*24,"00.00")&amp;"-"&amp;TEXT(B105*24,"00.00")&amp;"-"&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>12.50-15.33-W</v>
       </c>
     </row>
@@ -4786,7 +4785,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f>TEXT(A106*24,"00.00")&amp;"-"&amp;TEXT(B106*24,"00.00")&amp;"-"&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>13.00-14.17-W</v>
       </c>
     </row>
@@ -4801,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f>TEXT(A107*24,"00.00")&amp;"-"&amp;TEXT(B107*24,"00.00")&amp;"-"&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>13.00-14.25-MW</v>
       </c>
     </row>
@@ -4816,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f>TEXT(A108*24,"00.00")&amp;"-"&amp;TEXT(B108*24,"00.00")&amp;"-"&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>13.00-14.25-R</v>
       </c>
     </row>
@@ -4831,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f>TEXT(A109*24,"00.00")&amp;"-"&amp;TEXT(B109*24,"00.00")&amp;"-"&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>13.00-14.25-TR</v>
       </c>
     </row>
@@ -4846,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f>TEXT(A110*24,"00.00")&amp;"-"&amp;TEXT(B110*24,"00.00")&amp;"-"&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>13.00-15.33-TR</v>
       </c>
     </row>
@@ -4861,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="2" t="str">
-        <f>TEXT(A111*24,"00.00")&amp;"-"&amp;TEXT(B111*24,"00.00")&amp;"-"&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>13.00-15.50-R</v>
       </c>
     </row>
@@ -4876,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="2" t="str">
-        <f>TEXT(A112*24,"00.00")&amp;"-"&amp;TEXT(B112*24,"00.00")&amp;"-"&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>13.00-15.67-TR</v>
       </c>
     </row>
@@ -4891,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f>TEXT(A113*24,"00.00")&amp;"-"&amp;TEXT(B113*24,"00.00")&amp;"-"&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>13.50-14.33-M</v>
       </c>
     </row>
@@ -4906,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f>TEXT(A114*24,"00.00")&amp;"-"&amp;TEXT(B114*24,"00.00")&amp;"-"&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>13.50-14.33-MW</v>
       </c>
     </row>
@@ -4921,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f>TEXT(A115*24,"00.00")&amp;"-"&amp;TEXT(B115*24,"00.00")&amp;"-"&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>13.50-14.33-MWF</v>
       </c>
     </row>
@@ -4936,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f>TEXT(A116*24,"00.00")&amp;"-"&amp;TEXT(B116*24,"00.00")&amp;"-"&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>13.50-14.75-TR</v>
       </c>
     </row>
@@ -4951,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f>TEXT(A117*24,"00.00")&amp;"-"&amp;TEXT(B117*24,"00.00")&amp;"-"&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>13.50-15.17-MW</v>
       </c>
     </row>
@@ -4966,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f>TEXT(A118*24,"00.00")&amp;"-"&amp;TEXT(B118*24,"00.00")&amp;"-"&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>13.50-15.33-TR</v>
       </c>
     </row>
@@ -4981,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f>TEXT(A119*24,"00.00")&amp;"-"&amp;TEXT(B119*24,"00.00")&amp;"-"&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>13.50-15.33-W</v>
       </c>
     </row>
@@ -4996,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f>TEXT(A120*24,"00.00")&amp;"-"&amp;TEXT(B120*24,"00.00")&amp;"-"&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>13.50-15.67-MW</v>
       </c>
     </row>
@@ -5011,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f>TEXT(A121*24,"00.00")&amp;"-"&amp;TEXT(B121*24,"00.00")&amp;"-"&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>13.50-16.00-MW</v>
       </c>
     </row>
@@ -5026,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f>TEXT(A122*24,"00.00")&amp;"-"&amp;TEXT(B122*24,"00.00")&amp;"-"&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>13.50-16.33-F</v>
       </c>
     </row>
@@ -5041,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f>TEXT(A123*24,"00.00")&amp;"-"&amp;TEXT(B123*24,"00.00")&amp;"-"&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>13.50-16.33-T</v>
       </c>
     </row>
@@ -5056,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f>TEXT(A124*24,"00.00")&amp;"-"&amp;TEXT(B124*24,"00.00")&amp;"-"&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>13.50-16.33-TR</v>
       </c>
     </row>
@@ -5071,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f>TEXT(A125*24,"00.00")&amp;"-"&amp;TEXT(B125*24,"00.00")&amp;"-"&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>14.00-14.83-F</v>
       </c>
     </row>
@@ -5086,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f>TEXT(A126*24,"00.00")&amp;"-"&amp;TEXT(B126*24,"00.00")&amp;"-"&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>14.50-15.33-MW</v>
       </c>
     </row>
@@ -5101,7 +5100,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f>TEXT(A127*24,"00.00")&amp;"-"&amp;TEXT(B127*24,"00.00")&amp;"-"&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>14.50-15.33-TR</v>
       </c>
     </row>
@@ -5116,7 +5115,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f>TEXT(A128*24,"00.00")&amp;"-"&amp;TEXT(B128*24,"00.00")&amp;"-"&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>14.50-15.33-W</v>
       </c>
     </row>
@@ -5131,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f>TEXT(A129*24,"00.00")&amp;"-"&amp;TEXT(B129*24,"00.00")&amp;"-"&amp;C129</f>
+        <f t="shared" si="1"/>
         <v>14.50-15.75-M</v>
       </c>
     </row>
@@ -5146,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f>TEXT(A130*24,"00.00")&amp;"-"&amp;TEXT(B130*24,"00.00")&amp;"-"&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">TEXT(A130*24,"00.00")&amp;"-"&amp;TEXT(B130*24,"00.00")&amp;"-"&amp;C130</f>
         <v>14.50-15.75-MW</v>
       </c>
     </row>
@@ -5161,7 +5160,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f>TEXT(A131*24,"00.00")&amp;"-"&amp;TEXT(B131*24,"00.00")&amp;"-"&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>14.50-15.75-TR</v>
       </c>
     </row>
@@ -5176,7 +5175,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="str">
-        <f>TEXT(A132*24,"00.00")&amp;"-"&amp;TEXT(B132*24,"00.00")&amp;"-"&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>14.50-15.75-W</v>
       </c>
     </row>
@@ -5191,7 +5190,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="2" t="str">
-        <f>TEXT(A133*24,"00.00")&amp;"-"&amp;TEXT(B133*24,"00.00")&amp;"-"&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.17-MW</v>
       </c>
     </row>
@@ -5206,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="D134" s="2" t="str">
-        <f>TEXT(A134*24,"00.00")&amp;"-"&amp;TEXT(B134*24,"00.00")&amp;"-"&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.17-R</v>
       </c>
     </row>
@@ -5221,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="2" t="str">
-        <f>TEXT(A135*24,"00.00")&amp;"-"&amp;TEXT(B135*24,"00.00")&amp;"-"&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.17-T</v>
       </c>
     </row>
@@ -5236,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="2" t="str">
-        <f>TEXT(A136*24,"00.00")&amp;"-"&amp;TEXT(B136*24,"00.00")&amp;"-"&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.33-R</v>
       </c>
     </row>
@@ -5251,7 +5250,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="str">
-        <f>TEXT(A137*24,"00.00")&amp;"-"&amp;TEXT(B137*24,"00.00")&amp;"-"&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.33-T</v>
       </c>
     </row>
@@ -5266,7 +5265,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="2" t="str">
-        <f>TEXT(A138*24,"00.00")&amp;"-"&amp;TEXT(B138*24,"00.00")&amp;"-"&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.33-W</v>
       </c>
     </row>
@@ -5281,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="2" t="str">
-        <f>TEXT(A139*24,"00.00")&amp;"-"&amp;TEXT(B139*24,"00.00")&amp;"-"&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>14.50-16.83-R</v>
       </c>
     </row>
@@ -5296,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="2" t="str">
-        <f>TEXT(A140*24,"00.00")&amp;"-"&amp;TEXT(B140*24,"00.00")&amp;"-"&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.00-R</v>
       </c>
     </row>
@@ -5311,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="str">
-        <f>TEXT(A141*24,"00.00")&amp;"-"&amp;TEXT(B141*24,"00.00")&amp;"-"&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.00-T</v>
       </c>
     </row>
@@ -5326,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="2" t="str">
-        <f>TEXT(A142*24,"00.00")&amp;"-"&amp;TEXT(B142*24,"00.00")&amp;"-"&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.33-R</v>
       </c>
     </row>
@@ -5341,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="str">
-        <f>TEXT(A143*24,"00.00")&amp;"-"&amp;TEXT(B143*24,"00.00")&amp;"-"&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.33-T</v>
       </c>
     </row>
@@ -5356,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="2" t="str">
-        <f>TEXT(A144*24,"00.00")&amp;"-"&amp;TEXT(B144*24,"00.00")&amp;"-"&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.33-W</v>
       </c>
     </row>
@@ -5371,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="D145" s="2" t="str">
-        <f>TEXT(A145*24,"00.00")&amp;"-"&amp;TEXT(B145*24,"00.00")&amp;"-"&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>14.50-17.83-MW</v>
       </c>
     </row>
@@ -5386,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="str">
-        <f>TEXT(A146*24,"00.00")&amp;"-"&amp;TEXT(B146*24,"00.00")&amp;"-"&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>15.00-15.83-F</v>
       </c>
     </row>
@@ -5401,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="2" t="str">
-        <f>TEXT(A147*24,"00.00")&amp;"-"&amp;TEXT(B147*24,"00.00")&amp;"-"&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>15.00-16.25-MW</v>
       </c>
     </row>
@@ -5416,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="2" t="str">
-        <f>TEXT(A148*24,"00.00")&amp;"-"&amp;TEXT(B148*24,"00.00")&amp;"-"&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-M</v>
       </c>
     </row>
@@ -5431,7 +5430,7 @@
         <v>10</v>
       </c>
       <c r="D149" s="2" t="str">
-        <f>TEXT(A149*24,"00.00")&amp;"-"&amp;TEXT(B149*24,"00.00")&amp;"-"&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-MR</v>
       </c>
     </row>
@@ -5446,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="2" t="str">
-        <f>TEXT(A150*24,"00.00")&amp;"-"&amp;TEXT(B150*24,"00.00")&amp;"-"&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-MW</v>
       </c>
     </row>
@@ -5461,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="2" t="str">
-        <f>TEXT(A151*24,"00.00")&amp;"-"&amp;TEXT(B151*24,"00.00")&amp;"-"&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-MWF</v>
       </c>
     </row>
@@ -5476,7 +5475,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="2" t="str">
-        <f>TEXT(A152*24,"00.00")&amp;"-"&amp;TEXT(B152*24,"00.00")&amp;"-"&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-TR</v>
       </c>
     </row>
@@ -5491,7 +5490,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="str">
-        <f>TEXT(A153*24,"00.00")&amp;"-"&amp;TEXT(B153*24,"00.00")&amp;"-"&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.33-W</v>
       </c>
     </row>
@@ -5506,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="2" t="str">
-        <f>TEXT(A154*24,"00.00")&amp;"-"&amp;TEXT(B154*24,"00.00")&amp;"-"&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>15.50-16.75-MW</v>
       </c>
     </row>
@@ -5521,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="str">
-        <f>TEXT(A155*24,"00.00")&amp;"-"&amp;TEXT(B155*24,"00.00")&amp;"-"&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>15.50-17.17-MW</v>
       </c>
     </row>
@@ -5536,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="D156" s="2" t="str">
-        <f>TEXT(A156*24,"00.00")&amp;"-"&amp;TEXT(B156*24,"00.00")&amp;"-"&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.00-MR</v>
       </c>
     </row>
@@ -5551,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="2" t="str">
-        <f>TEXT(A157*24,"00.00")&amp;"-"&amp;TEXT(B157*24,"00.00")&amp;"-"&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.00-MW</v>
       </c>
     </row>
@@ -5566,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="2" t="str">
-        <f>TEXT(A158*24,"00.00")&amp;"-"&amp;TEXT(B158*24,"00.00")&amp;"-"&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.00-R</v>
       </c>
     </row>
@@ -5581,7 +5580,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="2" t="str">
-        <f>TEXT(A159*24,"00.00")&amp;"-"&amp;TEXT(B159*24,"00.00")&amp;"-"&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.00-TR</v>
       </c>
     </row>
@@ -5596,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="2" t="str">
-        <f>TEXT(A160*24,"00.00")&amp;"-"&amp;TEXT(B160*24,"00.00")&amp;"-"&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.33-F</v>
       </c>
     </row>
@@ -5611,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="2" t="str">
-        <f>TEXT(A161*24,"00.00")&amp;"-"&amp;TEXT(B161*24,"00.00")&amp;"-"&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.33-M</v>
       </c>
     </row>
@@ -5626,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="2" t="str">
-        <f>TEXT(A162*24,"00.00")&amp;"-"&amp;TEXT(B162*24,"00.00")&amp;"-"&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.33-R</v>
       </c>
     </row>
@@ -5641,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="str">
-        <f>TEXT(A163*24,"00.00")&amp;"-"&amp;TEXT(B163*24,"00.00")&amp;"-"&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.33-T</v>
       </c>
     </row>
@@ -5656,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="2" t="str">
-        <f>TEXT(A164*24,"00.00")&amp;"-"&amp;TEXT(B164*24,"00.00")&amp;"-"&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>15.50-18.33-W</v>
       </c>
     </row>
@@ -5671,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="2" t="str">
-        <f>TEXT(A165*24,"00.00")&amp;"-"&amp;TEXT(B165*24,"00.00")&amp;"-"&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>15.83-18.33-T</v>
       </c>
     </row>
@@ -5686,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="2" t="str">
-        <f>TEXT(A166*24,"00.00")&amp;"-"&amp;TEXT(B166*24,"00.00")&amp;"-"&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-M</v>
       </c>
     </row>
@@ -5701,7 +5700,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="2" t="str">
-        <f>TEXT(A167*24,"00.00")&amp;"-"&amp;TEXT(B167*24,"00.00")&amp;"-"&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-MW</v>
       </c>
     </row>
@@ -5716,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="D168" s="2" t="str">
-        <f>TEXT(A168*24,"00.00")&amp;"-"&amp;TEXT(B168*24,"00.00")&amp;"-"&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-R</v>
       </c>
     </row>
@@ -5731,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="2" t="str">
-        <f>TEXT(A169*24,"00.00")&amp;"-"&amp;TEXT(B169*24,"00.00")&amp;"-"&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-T</v>
       </c>
     </row>
@@ -5746,7 +5745,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="str">
-        <f>TEXT(A170*24,"00.00")&amp;"-"&amp;TEXT(B170*24,"00.00")&amp;"-"&amp;C170</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-TR</v>
       </c>
     </row>
@@ -5761,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="2" t="str">
-        <f>TEXT(A171*24,"00.00")&amp;"-"&amp;TEXT(B171*24,"00.00")&amp;"-"&amp;C171</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.25-W</v>
       </c>
     </row>
@@ -5776,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="str">
-        <f>TEXT(A172*24,"00.00")&amp;"-"&amp;TEXT(B172*24,"00.00")&amp;"-"&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>16.00-17.75-TR</v>
       </c>
     </row>
@@ -5791,7 +5790,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2" t="str">
-        <f>TEXT(A173*24,"00.00")&amp;"-"&amp;TEXT(B173*24,"00.00")&amp;"-"&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>16.00-18.33-W</v>
       </c>
     </row>
@@ -5806,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="2" t="str">
-        <f>TEXT(A174*24,"00.00")&amp;"-"&amp;TEXT(B174*24,"00.00")&amp;"-"&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>16.00-18.50-F</v>
       </c>
     </row>
@@ -5821,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="2" t="str">
-        <f>TEXT(A175*24,"00.00")&amp;"-"&amp;TEXT(B175*24,"00.00")&amp;"-"&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>16.00-18.50-M</v>
       </c>
     </row>
@@ -5836,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="2" t="str">
-        <f>TEXT(A176*24,"00.00")&amp;"-"&amp;TEXT(B176*24,"00.00")&amp;"-"&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>16.00-18.50-TR</v>
       </c>
     </row>
@@ -5851,7 +5850,7 @@
         <v>7</v>
       </c>
       <c r="D177" s="2" t="str">
-        <f>TEXT(A177*24,"00.00")&amp;"-"&amp;TEXT(B177*24,"00.00")&amp;"-"&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>16.00-18.83-T</v>
       </c>
     </row>
@@ -5866,7 +5865,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="2" t="str">
-        <f>TEXT(A178*24,"00.00")&amp;"-"&amp;TEXT(B178*24,"00.00")&amp;"-"&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>16.50-17.33-MTWR</v>
       </c>
     </row>
@@ -5881,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="2" t="str">
-        <f>TEXT(A179*24,"00.00")&amp;"-"&amp;TEXT(B179*24,"00.00")&amp;"-"&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>16.50-17.33-MW</v>
       </c>
     </row>
@@ -5896,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="str">
-        <f>TEXT(A180*24,"00.00")&amp;"-"&amp;TEXT(B180*24,"00.00")&amp;"-"&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>16.50-17.75-MW</v>
       </c>
     </row>
@@ -5911,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="str">
-        <f>TEXT(A181*24,"00.00")&amp;"-"&amp;TEXT(B181*24,"00.00")&amp;"-"&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>16.50-17.75-TR</v>
       </c>
     </row>
@@ -5926,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="2" t="str">
-        <f>TEXT(A182*24,"00.00")&amp;"-"&amp;TEXT(B182*24,"00.00")&amp;"-"&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-M</v>
       </c>
     </row>
@@ -5941,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="D183" s="2" t="str">
-        <f>TEXT(A183*24,"00.00")&amp;"-"&amp;TEXT(B183*24,"00.00")&amp;"-"&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-MW</v>
       </c>
     </row>
@@ -5956,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="2" t="str">
-        <f>TEXT(A184*24,"00.00")&amp;"-"&amp;TEXT(B184*24,"00.00")&amp;"-"&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-R</v>
       </c>
     </row>
@@ -5971,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="2" t="str">
-        <f>TEXT(A185*24,"00.00")&amp;"-"&amp;TEXT(B185*24,"00.00")&amp;"-"&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-T</v>
       </c>
     </row>
@@ -5986,7 +5985,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="2" t="str">
-        <f>TEXT(A186*24,"00.00")&amp;"-"&amp;TEXT(B186*24,"00.00")&amp;"-"&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-TR</v>
       </c>
     </row>
@@ -6001,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="2" t="str">
-        <f>TEXT(A187*24,"00.00")&amp;"-"&amp;TEXT(B187*24,"00.00")&amp;"-"&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.17-W</v>
       </c>
     </row>
@@ -6016,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="2" t="str">
-        <f>TEXT(A188*24,"00.00")&amp;"-"&amp;TEXT(B188*24,"00.00")&amp;"-"&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.33-M</v>
       </c>
     </row>
@@ -6031,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="2" t="str">
-        <f>TEXT(A189*24,"00.00")&amp;"-"&amp;TEXT(B189*24,"00.00")&amp;"-"&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.33-MW</v>
       </c>
     </row>
@@ -6046,7 +6045,7 @@
         <v>3</v>
       </c>
       <c r="D190" s="2" t="str">
-        <f>TEXT(A190*24,"00.00")&amp;"-"&amp;TEXT(B190*24,"00.00")&amp;"-"&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.33-R</v>
       </c>
     </row>
@@ -6061,7 +6060,7 @@
         <v>7</v>
       </c>
       <c r="D191" s="2" t="str">
-        <f>TEXT(A191*24,"00.00")&amp;"-"&amp;TEXT(B191*24,"00.00")&amp;"-"&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.33-T</v>
       </c>
     </row>
@@ -6076,7 +6075,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="2" t="str">
-        <f>TEXT(A192*24,"00.00")&amp;"-"&amp;TEXT(B192*24,"00.00")&amp;"-"&amp;C192</f>
+        <f t="shared" si="2"/>
         <v>16.50-18.33-W</v>
       </c>
     </row>
@@ -6091,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="2" t="str">
-        <f>TEXT(A193*24,"00.00")&amp;"-"&amp;TEXT(B193*24,"00.00")&amp;"-"&amp;C193</f>
+        <f t="shared" si="2"/>
         <v>16.50-19.00-MW</v>
       </c>
     </row>
@@ -6106,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="2" t="str">
-        <f>TEXT(A194*24,"00.00")&amp;"-"&amp;TEXT(B194*24,"00.00")&amp;"-"&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="3">TEXT(A194*24,"00.00")&amp;"-"&amp;TEXT(B194*24,"00.00")&amp;"-"&amp;C194</f>
         <v>16.50-19.00-TR</v>
       </c>
     </row>
@@ -6121,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="2" t="str">
-        <f>TEXT(A195*24,"00.00")&amp;"-"&amp;TEXT(B195*24,"00.00")&amp;"-"&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>16.50-19.83-MW</v>
       </c>
     </row>
@@ -6136,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="str">
-        <f>TEXT(A196*24,"00.00")&amp;"-"&amp;TEXT(B196*24,"00.00")&amp;"-"&amp;C196</f>
+        <f t="shared" si="3"/>
         <v>16.50-19.83-TR</v>
       </c>
     </row>
@@ -6151,7 +6150,7 @@
         <v>5</v>
       </c>
       <c r="D197" s="2" t="str">
-        <f>TEXT(A197*24,"00.00")&amp;"-"&amp;TEXT(B197*24,"00.00")&amp;"-"&amp;C197</f>
+        <f t="shared" si="3"/>
         <v>17.00-18.25-TR</v>
       </c>
     </row>
@@ -6166,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="str">
-        <f>TEXT(A198*24,"00.00")&amp;"-"&amp;TEXT(B198*24,"00.00")&amp;"-"&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.33-M</v>
       </c>
     </row>
@@ -6181,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="2" t="str">
-        <f>TEXT(A199*24,"00.00")&amp;"-"&amp;TEXT(B199*24,"00.00")&amp;"-"&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.33-MW</v>
       </c>
     </row>
@@ -6196,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="2" t="str">
-        <f>TEXT(A200*24,"00.00")&amp;"-"&amp;TEXT(B200*24,"00.00")&amp;"-"&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.75-M</v>
       </c>
     </row>
@@ -6211,7 +6210,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="2" t="str">
-        <f>TEXT(A201*24,"00.00")&amp;"-"&amp;TEXT(B201*24,"00.00")&amp;"-"&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.75-MW</v>
       </c>
     </row>
@@ -6226,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="2" t="str">
-        <f>TEXT(A202*24,"00.00")&amp;"-"&amp;TEXT(B202*24,"00.00")&amp;"-"&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.75-TR</v>
       </c>
     </row>
@@ -6241,7 +6240,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="str">
-        <f>TEXT(A203*24,"00.00")&amp;"-"&amp;TEXT(B203*24,"00.00")&amp;"-"&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>17.50-18.75-W</v>
       </c>
     </row>
@@ -6256,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="2" t="str">
-        <f>TEXT(A204*24,"00.00")&amp;"-"&amp;TEXT(B204*24,"00.00")&amp;"-"&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>17.50-19.17-T</v>
       </c>
     </row>
@@ -6271,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="2" t="str">
-        <f>TEXT(A205*24,"00.00")&amp;"-"&amp;TEXT(B205*24,"00.00")&amp;"-"&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>17.50-19.33-M</v>
       </c>
     </row>
@@ -6286,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="D206" s="2" t="str">
-        <f>TEXT(A206*24,"00.00")&amp;"-"&amp;TEXT(B206*24,"00.00")&amp;"-"&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>17.50-19.33-R</v>
       </c>
     </row>
@@ -6301,7 +6300,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="2" t="str">
-        <f>TEXT(A207*24,"00.00")&amp;"-"&amp;TEXT(B207*24,"00.00")&amp;"-"&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>17.50-19.33-T</v>
       </c>
     </row>
@@ -6316,7 +6315,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="str">
-        <f>TEXT(A208*24,"00.00")&amp;"-"&amp;TEXT(B208*24,"00.00")&amp;"-"&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>17.50-19.33-W</v>
       </c>
     </row>
@@ -6331,7 +6330,7 @@
         <v>10</v>
       </c>
       <c r="D209" s="2" t="str">
-        <f>TEXT(A209*24,"00.00")&amp;"-"&amp;TEXT(B209*24,"00.00")&amp;"-"&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>17.50-20.00-MR</v>
       </c>
     </row>
@@ -6346,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="2" t="str">
-        <f>TEXT(A210*24,"00.00")&amp;"-"&amp;TEXT(B210*24,"00.00")&amp;"-"&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>17.50-20.00-R</v>
       </c>
     </row>
@@ -6361,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="D211" s="2" t="str">
-        <f>TEXT(A211*24,"00.00")&amp;"-"&amp;TEXT(B211*24,"00.00")&amp;"-"&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>17.50-20.00-T</v>
       </c>
     </row>
@@ -6376,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="D212" s="2" t="str">
-        <f>TEXT(A212*24,"00.00")&amp;"-"&amp;TEXT(B212*24,"00.00")&amp;"-"&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>18.00-19.25-MW</v>
       </c>
     </row>
@@ -6391,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="D213" s="2" t="str">
-        <f>TEXT(A213*24,"00.00")&amp;"-"&amp;TEXT(B213*24,"00.00")&amp;"-"&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>18.00-19.25-T</v>
       </c>
     </row>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="2" t="str">
-        <f>TEXT(A214*24,"00.00")&amp;"-"&amp;TEXT(B214*24,"00.00")&amp;"-"&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>18.00-19.50-M</v>
       </c>
     </row>
@@ -6421,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="2" t="str">
-        <f>TEXT(A215*24,"00.00")&amp;"-"&amp;TEXT(B215*24,"00.00")&amp;"-"&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>18.00-20.50-MW</v>
       </c>
     </row>
@@ -6436,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="2" t="str">
-        <f>TEXT(A216*24,"00.00")&amp;"-"&amp;TEXT(B216*24,"00.00")&amp;"-"&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>18.00-20.50-R</v>
       </c>
     </row>
@@ -6451,7 +6450,7 @@
         <v>7</v>
       </c>
       <c r="D217" s="2" t="str">
-        <f>TEXT(A217*24,"00.00")&amp;"-"&amp;TEXT(B217*24,"00.00")&amp;"-"&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>18.00-20.50-T</v>
       </c>
     </row>
@@ -6466,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="2" t="str">
-        <f>TEXT(A218*24,"00.00")&amp;"-"&amp;TEXT(B218*24,"00.00")&amp;"-"&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>18.00-20.50-W</v>
       </c>
     </row>
@@ -6481,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="D219" s="2" t="str">
-        <f>TEXT(A219*24,"00.00")&amp;"-"&amp;TEXT(B219*24,"00.00")&amp;"-"&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>18.50-19.33-M</v>
       </c>
     </row>
@@ -6496,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="D220" s="2" t="str">
-        <f>TEXT(A220*24,"00.00")&amp;"-"&amp;TEXT(B220*24,"00.00")&amp;"-"&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>18.50-19.33-R</v>
       </c>
     </row>
@@ -6511,7 +6510,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="str">
-        <f>TEXT(A221*24,"00.00")&amp;"-"&amp;TEXT(B221*24,"00.00")&amp;"-"&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>18.50-19.75-MW</v>
       </c>
     </row>
@@ -6526,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="2" t="str">
-        <f>TEXT(A222*24,"00.00")&amp;"-"&amp;TEXT(B222*24,"00.00")&amp;"-"&amp;C222</f>
+        <f t="shared" si="3"/>
         <v>18.50-19.75-TR</v>
       </c>
     </row>
@@ -6541,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="D223" s="2" t="str">
-        <f>TEXT(A223*24,"00.00")&amp;"-"&amp;TEXT(B223*24,"00.00")&amp;"-"&amp;C223</f>
+        <f t="shared" si="3"/>
         <v>18.50-20.17-M</v>
       </c>
     </row>
@@ -6556,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="D224" s="2" t="str">
-        <f>TEXT(A224*24,"00.00")&amp;"-"&amp;TEXT(B224*24,"00.00")&amp;"-"&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>18.50-20.17-T</v>
       </c>
     </row>
@@ -6571,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="2" t="str">
-        <f>TEXT(A225*24,"00.00")&amp;"-"&amp;TEXT(B225*24,"00.00")&amp;"-"&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>18.50-20.33-M</v>
       </c>
     </row>
@@ -6586,7 +6585,7 @@
         <v>7</v>
       </c>
       <c r="D226" s="2" t="str">
-        <f>TEXT(A226*24,"00.00")&amp;"-"&amp;TEXT(B226*24,"00.00")&amp;"-"&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>18.50-20.33-T</v>
       </c>
     </row>
@@ -6601,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="2" t="str">
-        <f>TEXT(A227*24,"00.00")&amp;"-"&amp;TEXT(B227*24,"00.00")&amp;"-"&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>18.50-20.33-W</v>
       </c>
     </row>
@@ -6616,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="D228" s="2" t="str">
-        <f>TEXT(A228*24,"00.00")&amp;"-"&amp;TEXT(B228*24,"00.00")&amp;"-"&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.00-M</v>
       </c>
     </row>
@@ -6631,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="D229" s="2" t="str">
-        <f>TEXT(A229*24,"00.00")&amp;"-"&amp;TEXT(B229*24,"00.00")&amp;"-"&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.00-R</v>
       </c>
     </row>
@@ -6646,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="D230" s="2" t="str">
-        <f>TEXT(A230*24,"00.00")&amp;"-"&amp;TEXT(B230*24,"00.00")&amp;"-"&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.00-T</v>
       </c>
     </row>
@@ -6661,7 +6660,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="2" t="str">
-        <f>TEXT(A231*24,"00.00")&amp;"-"&amp;TEXT(B231*24,"00.00")&amp;"-"&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.00-W</v>
       </c>
     </row>
@@ -6676,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="2" t="str">
-        <f>TEXT(A232*24,"00.00")&amp;"-"&amp;TEXT(B232*24,"00.00")&amp;"-"&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.33-M</v>
       </c>
     </row>
@@ -6691,7 +6690,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="2" t="str">
-        <f>TEXT(A233*24,"00.00")&amp;"-"&amp;TEXT(B233*24,"00.00")&amp;"-"&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.33-MW</v>
       </c>
     </row>
@@ -6706,7 +6705,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="2" t="str">
-        <f>TEXT(A234*24,"00.00")&amp;"-"&amp;TEXT(B234*24,"00.00")&amp;"-"&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.33-R</v>
       </c>
     </row>
@@ -6721,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="D235" s="2" t="str">
-        <f>TEXT(A235*24,"00.00")&amp;"-"&amp;TEXT(B235*24,"00.00")&amp;"-"&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.33-T</v>
       </c>
     </row>
@@ -6736,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="2" t="str">
-        <f>TEXT(A236*24,"00.00")&amp;"-"&amp;TEXT(B236*24,"00.00")&amp;"-"&amp;C236</f>
+        <f t="shared" si="3"/>
         <v>18.50-21.33-W</v>
       </c>
     </row>
@@ -6751,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="2" t="str">
-        <f>TEXT(A237*24,"00.00")&amp;"-"&amp;TEXT(B237*24,"00.00")&amp;"-"&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>19.00-20.67-MW</v>
       </c>
     </row>
@@ -6766,7 +6765,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="2" t="str">
-        <f>TEXT(A238*24,"00.00")&amp;"-"&amp;TEXT(B238*24,"00.00")&amp;"-"&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>19.00-20.83-T</v>
       </c>
     </row>
@@ -6781,7 +6780,7 @@
         <v>3</v>
       </c>
       <c r="D239" s="2" t="str">
-        <f>TEXT(A239*24,"00.00")&amp;"-"&amp;TEXT(B239*24,"00.00")&amp;"-"&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>19.00-21.00-R</v>
       </c>
     </row>
@@ -6796,7 +6795,7 @@
         <v>7</v>
       </c>
       <c r="D240" s="2" t="str">
-        <f>TEXT(A240*24,"00.00")&amp;"-"&amp;TEXT(B240*24,"00.00")&amp;"-"&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>19.00-21.50-T</v>
       </c>
     </row>
@@ -6811,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="2" t="str">
-        <f>TEXT(A241*24,"00.00")&amp;"-"&amp;TEXT(B241*24,"00.00")&amp;"-"&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>19.00-21.83-M</v>
       </c>
     </row>
@@ -6826,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="2" t="str">
-        <f>TEXT(A242*24,"00.00")&amp;"-"&amp;TEXT(B242*24,"00.00")&amp;"-"&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>19.00-21.83-R</v>
       </c>
     </row>
@@ -6841,7 +6840,7 @@
         <v>5</v>
       </c>
       <c r="D243" s="2" t="str">
-        <f>TEXT(A243*24,"00.00")&amp;"-"&amp;TEXT(B243*24,"00.00")&amp;"-"&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>19.00-21.83-TR</v>
       </c>
     </row>
@@ -6856,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="D244" s="2" t="str">
-        <f>TEXT(A244*24,"00.00")&amp;"-"&amp;TEXT(B244*24,"00.00")&amp;"-"&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>19.50-21.33-R</v>
       </c>
     </row>
@@ -6871,7 +6870,7 @@
         <v>7</v>
       </c>
       <c r="D245" s="2" t="str">
-        <f>TEXT(A245*24,"00.00")&amp;"-"&amp;TEXT(B245*24,"00.00")&amp;"-"&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>19.50-21.33-T</v>
       </c>
     </row>
@@ -6886,7 +6885,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="2" t="str">
-        <f>TEXT(A246*24,"00.00")&amp;"-"&amp;TEXT(B246*24,"00.00")&amp;"-"&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>19.50-21.33-W</v>
       </c>
     </row>
@@ -6901,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="D247" s="2" t="str">
-        <f>TEXT(A247*24,"00.00")&amp;"-"&amp;TEXT(B247*24,"00.00")&amp;"-"&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>19.50-21.83-M</v>
       </c>
     </row>
